--- a/Electronic/Lista de componentes.xlsx
+++ b/Electronic/Lista de componentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javic\Downloads\Universidad\2020-1\Seminario - SPEL\Repo\DeploymentSystem-EL\Electronic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Universidad\SPEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03E2462-1FFC-4E1D-AEBB-56D750F18ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDC9DDC-4738-4C59-A0C1-4AE059248A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
   <si>
     <t>Componentes placa A1</t>
   </si>
@@ -49,13 +49,151 @@
   </si>
   <si>
     <t>Componentes placa B1</t>
+  </si>
+  <si>
+    <t>CONN HEADER SMD R/A 4POS 1.25MM</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Conexión I2C</t>
+  </si>
+  <si>
+    <t>CONN HEADER SMD R/A 6POS 1.25MM</t>
+  </si>
+  <si>
+    <t>Bootloader, Ftdi</t>
+  </si>
+  <si>
+    <t>CONN HEADER SMD R/A 12POS 1.25MM</t>
+  </si>
+  <si>
+    <t>Mosfet</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 30V 3.4A SOT23</t>
+  </si>
+  <si>
+    <t>t.ly/qPjX</t>
+  </si>
+  <si>
+    <t>t.ly/5aO5</t>
+  </si>
+  <si>
+    <t>t.ly/mbww</t>
+  </si>
+  <si>
+    <t>t.ly/o3bO</t>
+  </si>
+  <si>
+    <t>t.ly/j6Yyp</t>
+  </si>
+  <si>
+    <t>Conexión entre placas</t>
+  </si>
+  <si>
+    <t>Sensor de temperatura</t>
+  </si>
+  <si>
+    <t>LM70CIMM-3/NOPB</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>t.ly/Vj7h</t>
+  </si>
+  <si>
+    <t>ABM3B-16.000MHZ-B2-T</t>
+  </si>
+  <si>
+    <t>t.ly/oWgw</t>
+  </si>
+  <si>
+    <t>t.ly/bRiH</t>
+  </si>
+  <si>
+    <t>t.ly/lHjF</t>
+  </si>
+  <si>
+    <t>Tuercas centrales</t>
+  </si>
+  <si>
+    <t>Golillas centrales</t>
+  </si>
+  <si>
+    <t>Tornillos centrales</t>
+  </si>
+  <si>
+    <t>M1.6 Hexagon Nuts (DIN 934) - A2 Stainless Steel</t>
+  </si>
+  <si>
+    <t>M1.6 Reduced Diameter Flat Washers (DIN 433) - A2 Stainless Steel</t>
+  </si>
+  <si>
+    <t>M1.6 X 5mm Torx Pan Head Screws (ISO 14583) - A2 Stainless Steel</t>
+  </si>
+  <si>
+    <t>Resistencia 330ohm</t>
+  </si>
+  <si>
+    <t>Resistencia 10kohm</t>
+  </si>
+  <si>
+    <t>Condensador 100nF</t>
+  </si>
+  <si>
+    <t>Condensador 22pF</t>
+  </si>
+  <si>
+    <t>Switch por definir</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>t.ly/rFsq</t>
+  </si>
+  <si>
+    <t>C0603C104J4RACTU</t>
+  </si>
+  <si>
+    <t>C0402C104Z4VAC7867</t>
+  </si>
+  <si>
+    <t>t.ly/kweN</t>
+  </si>
+  <si>
+    <t>ERA-8AEB104V</t>
+  </si>
+  <si>
+    <t>t.ly/maDZ</t>
+  </si>
+  <si>
+    <t>KTR18EZPF3300</t>
+  </si>
+  <si>
+    <t>t.ly/FdGw</t>
+  </si>
+  <si>
+    <t>lugar de venta</t>
+  </si>
+  <si>
+    <t>Switch de reset arduino</t>
+  </si>
+  <si>
+    <t>Switch exterior</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +209,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -80,7 +233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -161,11 +314,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,8 +407,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,27 +743,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D19"/>
+  <dimension ref="B3:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="B5:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="61.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -496,104 +775,252 @@
       <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428701F0-D684-4B4C-ABEB-9B1BAAAF0CFF}">
-  <dimension ref="B3:D19"/>
+  <dimension ref="B3:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="B3:C3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="63.85546875" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -603,76 +1030,151 @@
       <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
+      <c r="E19" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -681,105 +1183,181 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A36F82-885C-4623-948D-F46D0757333D}">
-  <dimension ref="B3:D19"/>
+  <dimension ref="B3:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
+      <c r="E19" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -788,30 +1366,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD78A74-C69B-491D-AB2C-201F4EF8C944}">
-  <dimension ref="A2:D33"/>
+  <dimension ref="A2:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.140625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -821,138 +1400,213 @@
       <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>

--- a/Electronic/Lista de componentes.xlsx
+++ b/Electronic/Lista de componentes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Universidad\SPEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javic\Downloads\Universidad\2020-1\Seminario - SPEL\Repo\DeploymentSystem-EL\Electronic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDC9DDC-4738-4C59-A0C1-4AE059248A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4429F5E0-2093-4030-9955-34F6F511FCBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLACA A1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="57">
   <si>
     <t>Componentes placa A1</t>
   </si>
@@ -187,6 +187,18 @@
   </si>
   <si>
     <t>Switch exterior</t>
+  </si>
+  <si>
+    <t>t.ly/4Lou</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Tornillos soportes</t>
+  </si>
+  <si>
+    <t>M1.6 X 14mm Torx Pan Head Screws (ISO 14583) - A2 Stainless Steel</t>
   </si>
 </sst>
 </file>
@@ -743,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F20"/>
+  <dimension ref="B3:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +908,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
@@ -910,44 +922,47 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="11">
-        <v>2</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -955,40 +970,54 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E20" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
         <v>1</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E21" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1000,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428701F0-D684-4B4C-ABEB-9B1BAAAF0CFF}">
-  <dimension ref="B3:E19"/>
+  <dimension ref="B3:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,13 +1110,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -1095,13 +1124,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -1109,72 +1138,86 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
-        <v>2</v>
-      </c>
-      <c r="C12" s="11" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1183,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A36F82-885C-4623-948D-F46D0757333D}">
-  <dimension ref="B3:E19"/>
+  <dimension ref="B3:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,13 +1321,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>28</v>
+        <v>56</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -1292,42 +1335,50 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
-        <v>2</v>
-      </c>
-      <c r="C12" s="11" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
@@ -1358,6 +1409,12 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1366,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD78A74-C69B-491D-AB2C-201F4EF8C944}">
-  <dimension ref="A2:E33"/>
+  <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,13 +1508,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1465,13 +1522,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1479,42 +1536,50 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
-        <v>2</v>
-      </c>
-      <c r="C12" s="11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
@@ -1547,9 +1612,10 @@
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
@@ -1616,6 +1682,11 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Electronic/Lista de componentes.xlsx
+++ b/Electronic/Lista de componentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javic\Downloads\Universidad\2020-1\Seminario - SPEL\Repo\DeploymentSystem-EL\Electronic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4429F5E0-2093-4030-9955-34F6F511FCBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C2475B-3C93-4964-BC3D-E18FDB36CA14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="660" windowWidth="14535" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLACA A1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
   <si>
     <t>Componentes placa A1</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>M1.6 X 14mm Torx Pan Head Screws (ISO 14583) - A2 Stainless Steel</t>
+  </si>
+  <si>
+    <t>ATMEGA328P-AUR</t>
+  </si>
+  <si>
+    <t>Atmega</t>
+  </si>
+  <si>
+    <t>t.ly/KFS9</t>
   </si>
 </sst>
 </file>
@@ -432,9 +441,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,34 +450,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -755,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F21"/>
+  <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E15"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,49 +786,50 @@
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C6" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -827,55 +837,55 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -883,100 +893,100 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
         <v>8</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="11">
-        <v>2</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -984,40 +994,54 @@
         <v>1</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
+        <v>2</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D21" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E21" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="12">
         <v>1</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1031,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428701F0-D684-4B4C-ABEB-9B1BAAAF0CFF}">
   <dimension ref="B3:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,7 +1094,7 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1084,7 +1108,7 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1098,7 +1122,7 @@
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1126,7 +1150,7 @@
       <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1184,10 +1208,18 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
@@ -1229,13 +1261,13 @@
   <dimension ref="B3:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="62.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1247,16 +1279,16 @@
     </row>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1267,7 +1299,7 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1281,7 +1313,7 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1295,7 +1327,7 @@
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1381,10 +1413,18 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="10"/>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
@@ -1425,14 +1465,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD78A74-C69B-491D-AB2C-201F4EF8C944}">
   <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="65.140625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1468,7 +1508,7 @@
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1482,7 +1522,7 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1496,7 +1536,7 @@
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1582,10 +1622,18 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="10"/>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>

--- a/Electronic/Lista de componentes.xlsx
+++ b/Electronic/Lista de componentes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javic\Downloads\Universidad\2020-1\Seminario - SPEL\Repo\DeploymentSystem-EL\Electronic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C2475B-3C93-4964-BC3D-E18FDB36CA14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2470BB-206E-4273-BBF2-95B103009394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="660" windowWidth="14535" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLACA A1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="61">
   <si>
     <t>Componentes placa A1</t>
   </si>
@@ -51,21 +51,9 @@
     <t>Componentes placa B1</t>
   </si>
   <si>
-    <t>CONN HEADER SMD R/A 4POS 1.25MM</t>
-  </si>
-  <si>
     <t>Comentario</t>
   </si>
   <si>
-    <t>Conexión I2C</t>
-  </si>
-  <si>
-    <t>CONN HEADER SMD R/A 6POS 1.25MM</t>
-  </si>
-  <si>
-    <t>Bootloader, Ftdi</t>
-  </si>
-  <si>
     <t>CONN HEADER SMD R/A 12POS 1.25MM</t>
   </si>
   <si>
@@ -84,12 +72,6 @@
     <t>t.ly/mbww</t>
   </si>
   <si>
-    <t>t.ly/o3bO</t>
-  </si>
-  <si>
-    <t>t.ly/j6Yyp</t>
-  </si>
-  <si>
     <t>Conexión entre placas</t>
   </si>
   <si>
@@ -102,39 +84,21 @@
     <t>Clock</t>
   </si>
   <si>
-    <t>t.ly/Vj7h</t>
-  </si>
-  <si>
-    <t>ABM3B-16.000MHZ-B2-T</t>
-  </si>
-  <si>
     <t>t.ly/oWgw</t>
   </si>
   <si>
-    <t>t.ly/bRiH</t>
-  </si>
-  <si>
     <t>t.ly/lHjF</t>
   </si>
   <si>
-    <t>Tuercas centrales</t>
-  </si>
-  <si>
     <t>Golillas centrales</t>
   </si>
   <si>
-    <t>Tornillos centrales</t>
-  </si>
-  <si>
     <t>M1.6 Hexagon Nuts (DIN 934) - A2 Stainless Steel</t>
   </si>
   <si>
     <t>M1.6 Reduced Diameter Flat Washers (DIN 433) - A2 Stainless Steel</t>
   </si>
   <si>
-    <t>M1.6 X 5mm Torx Pan Head Screws (ISO 14583) - A2 Stainless Steel</t>
-  </si>
-  <si>
     <t>Resistencia 330ohm</t>
   </si>
   <si>
@@ -156,33 +120,12 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <t>t.ly/rFsq</t>
-  </si>
-  <si>
-    <t>C0603C104J4RACTU</t>
-  </si>
-  <si>
-    <t>C0402C104Z4VAC7867</t>
-  </si>
-  <si>
     <t>t.ly/kweN</t>
   </si>
   <si>
-    <t>ERA-8AEB104V</t>
-  </si>
-  <si>
-    <t>t.ly/maDZ</t>
-  </si>
-  <si>
-    <t>KTR18EZPF3300</t>
-  </si>
-  <si>
     <t>t.ly/FdGw</t>
   </si>
   <si>
-    <t>lugar de venta</t>
-  </si>
-  <si>
     <t>Switch de reset arduino</t>
   </si>
   <si>
@@ -192,12 +135,6 @@
     <t>t.ly/4Lou</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Tornillos soportes</t>
-  </si>
-  <si>
     <t>M1.6 X 14mm Torx Pan Head Screws (ISO 14583) - A2 Stainless Steel</t>
   </si>
   <si>
@@ -208,13 +145,79 @@
   </si>
   <si>
     <t>t.ly/KFS9</t>
+  </si>
+  <si>
+    <t>t.ly/vgg6</t>
+  </si>
+  <si>
+    <t>M1.6 X 8mm Torx Pan Head Screws (ISO 14583) - A2 Stainless Steel</t>
+  </si>
+  <si>
+    <t>Lugar de venta</t>
+  </si>
+  <si>
+    <t>Accu.co.uk</t>
+  </si>
+  <si>
+    <t>Lugar de Venta</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>Resistencia 330 Ohm RES SMD 330 OHM 1% 1/4W 1206</t>
+  </si>
+  <si>
+    <t>Condensador 100 nF CAP CER 0.1UF 16V Y5V 0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condensador 22 pF CAP CER 22PF 16V C0G/NP0 0402	</t>
+  </si>
+  <si>
+    <t>t.ly/1s9D</t>
+  </si>
+  <si>
+    <t>Resistencia 10 kOhm RES SMD 10K OHM 1% 1/4W 1206</t>
+  </si>
+  <si>
+    <t>t.ly/rQDF</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>CONN HEADER SMD R/A 8POS 1.25MM</t>
+  </si>
+  <si>
+    <t>t.ly/VRtf</t>
+  </si>
+  <si>
+    <t>ABM3-16.000MHZ-D2Y-T</t>
+  </si>
+  <si>
+    <t>t.ly/B8Wv</t>
+  </si>
+  <si>
+    <t>Tornillos soportes v1</t>
+  </si>
+  <si>
+    <t>Tornillos soportes v2/centrales</t>
+  </si>
+  <si>
+    <t>t.ly/ORYT</t>
+  </si>
+  <si>
+    <t>CONN HEADER SMD R/A 2POS 1.25MM</t>
+  </si>
+  <si>
+    <t>Tuercas centrales/soportes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,16 +248,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -354,52 +369,37 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -415,9 +415,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,9 +428,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,33 +435,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,11 +453,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -764,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F22"/>
+  <dimension ref="B3:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,112 +780,129 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>50</v>
+      <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="17">
+      <c r="B6" s="20">
         <v>1</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="16"/>
+      <c r="C6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
+      <c r="E9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>54</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -893,27 +910,31 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -921,13 +942,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
+      <c r="E14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -935,128 +959,130 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="11">
-        <v>2</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="11">
+      <c r="F20" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
         <v>1</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="11">
-        <v>1</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="11">
-        <v>2</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="12">
-        <v>1</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="C21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428701F0-D684-4B4C-ABEB-9B1BAAAF0CFF}">
-  <dimension ref="B3:E20"/>
+  <dimension ref="B3:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,192 +1090,194 @@
     <col min="3" max="3" width="63.85546875" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
-        <v>2</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="10"/>
+      <c r="C15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1258,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A36F82-885C-4623-948D-F46D0757333D}">
-  <dimension ref="B3:E20"/>
+  <dimension ref="B3:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,192 +1297,194 @@
     <col min="3" max="3" width="62.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>28</v>
+      <c r="D11" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
-        <v>2</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="10"/>
+      <c r="C15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1463,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD78A74-C69B-491D-AB2C-201F4EF8C944}">
-  <dimension ref="A2:E34"/>
+  <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,268 +1504,288 @@
     <col min="3" max="3" width="65.140625" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="E5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="F7" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
-        <v>2</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Electronic/Lista de componentes.xlsx
+++ b/Electronic/Lista de componentes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javic\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javic\Downloads\Universidad\2020-1\Seminario - SPEL\Repo\DeploymentSystem-EL\Electronic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A833F34-F5D1-4CED-915B-33ED42D86F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AFDBC9-44D1-4947-BE69-F40F490EDD22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="10530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLACA A1" sheetId="1" r:id="rId1"/>
@@ -207,15 +207,6 @@
     <t>Resistencia 10 kOhm (Mosfet)</t>
   </si>
   <si>
-    <t>53261-0771</t>
-  </si>
-  <si>
-    <t>t.ly/oJwp</t>
-  </si>
-  <si>
-    <t>Picoblade 7 pines, angulo recto</t>
-  </si>
-  <si>
     <t>M1.6 X 8mm Torx Pan Head Screws (ISO 14583) - A2 Stainless Steel</t>
   </si>
   <si>
@@ -229,13 +220,22 @@
   </si>
   <si>
     <t>Tornillos centrales/soportes</t>
+  </si>
+  <si>
+    <t>t.ly/KGWQ</t>
+  </si>
+  <si>
+    <t>Picoblade 2 pines, angulo recto</t>
+  </si>
+  <si>
+    <t>53261-7002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +260,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -478,14 +484,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -493,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -616,6 +624,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,20 +645,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -924,7 +935,7 @@
   <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,13 +950,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -1085,7 +1096,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>16</v>
@@ -1102,7 +1113,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1119,7 +1130,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>15</v>
@@ -1248,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22589D4-0FC2-4447-B049-1AAB25C2B4EF}">
-  <dimension ref="B1:F13"/>
+  <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,25 +1276,25 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="43" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="12" t="s">
@@ -1291,172 +1302,155 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>4</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E7" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="26">
-        <v>1</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="27">
         <v>2</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="C10" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
-        <v>6</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
-        <v>8</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="27">
-        <v>1</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="29">
-        <v>1</v>
-      </c>
-      <c r="C13" s="41" t="s">
+    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="C12" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D12" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E12" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F12" s="29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1473,7 +1467,7 @@
   <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C15:C16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,13 +1481,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -1580,7 +1574,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>16</v>
@@ -1589,7 +1583,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>36</v>
@@ -1597,7 +1591,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>14</v>
@@ -1606,7 +1600,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>36</v>
@@ -1614,7 +1608,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>15</v>
@@ -1623,7 +1617,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>36</v>
@@ -1692,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A85C582-4E35-4BAE-A179-DE33310AD336}">
   <dimension ref="B1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,13 +1701,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -1734,25 +1728,37 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="49" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
@@ -1790,7 +1796,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>16</v>
@@ -1807,7 +1813,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>14</v>
@@ -1824,7 +1830,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>15</v>
@@ -1895,5 +1901,6 @@
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Electronic/Lista de componentes.xlsx
+++ b/Electronic/Lista de componentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javic\Downloads\Universidad\2020-1\Seminario - SPEL\Repo\DeploymentSystem-EL\Electronic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AFDBC9-44D1-4947-BE69-F40F490EDD22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EFA17A-86AF-46D9-B654-F62A531D0B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="10530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLACA A1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="71">
   <si>
     <t>Componentes placa A1</t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>53261-7002</t>
+  </si>
+  <si>
+    <t>Switch (despliegue paneles) SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch (despliegue paneles) </t>
+  </si>
+  <si>
+    <t>t.ly/CNFJ</t>
+  </si>
+  <si>
+    <t>AV4524</t>
   </si>
 </sst>
 </file>
@@ -297,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -496,12 +508,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,20 +670,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -932,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F19"/>
+  <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,13 +993,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -1231,19 +1274,36 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="29">
-        <v>1</v>
-      </c>
-      <c r="C19" s="29" t="s">
+      <c r="B19" s="51">
+        <v>1</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="29">
+        <v>1</v>
+      </c>
+      <c r="C20" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D20" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E20" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F20" s="29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1259,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22589D4-0FC2-4447-B049-1AAB25C2B4EF}">
-  <dimension ref="B1:F12"/>
+  <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,13 +1336,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -1438,19 +1498,36 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29">
-        <v>1</v>
-      </c>
-      <c r="C12" s="41" t="s">
+      <c r="B12" s="51">
+        <v>1</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="C13" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D13" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E13" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F13" s="29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1464,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819AC8AE-9312-4467-B970-E11C646F330C}">
-  <dimension ref="B1:F13"/>
+  <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,13 +1558,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -1658,19 +1735,36 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="29">
-        <v>1</v>
-      </c>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="51">
+        <v>1</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E14" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F14" s="29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1684,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A85C582-4E35-4BAE-A179-DE33310AD336}">
-  <dimension ref="B1:F13"/>
+  <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,13 +1795,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -1739,7 +1833,7 @@
       <c r="E4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="46" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1747,7 +1841,7 @@
       <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="47" t="s">
         <v>66</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -1880,19 +1974,36 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="29">
-        <v>1</v>
-      </c>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="51">
+        <v>1</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="29" t="s">
+      <c r="E14" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Electronic/Lista de componentes.xlsx
+++ b/Electronic/Lista de componentes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javic\Downloads\Universidad\2020-1\Seminario - SPEL\Repo\DeploymentSystem-EL\Electronic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EO\Documents\ProgrammingDevelopment\DeploymentSystem\DeploymentSystem-EL\Electronic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EFA17A-86AF-46D9-B654-F62A531D0B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PLACA A1" sheetId="1" r:id="rId1"/>
@@ -246,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -676,6 +675,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,15 +691,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,11 +973,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,13 +992,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -1274,13 +1273,13 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="51">
-        <v>1</v>
-      </c>
-      <c r="C19" s="52" t="s">
+      <c r="B19" s="48">
+        <v>1</v>
+      </c>
+      <c r="C19" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E19" s="41" t="s">
@@ -1313,16 +1312,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22589D4-0FC2-4447-B049-1AAB25C2B4EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F12"/>
+      <selection activeCell="B2" sqref="B2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,13 +1335,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -1498,13 +1497,13 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="51">
-        <v>1</v>
-      </c>
-      <c r="C12" s="52" t="s">
+      <c r="B12" s="48">
+        <v>1</v>
+      </c>
+      <c r="C12" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="41" t="s">
@@ -1536,15 +1535,16 @@
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819AC8AE-9312-4467-B970-E11C646F330C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,13 +1558,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -1735,13 +1735,13 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="51">
-        <v>1</v>
-      </c>
-      <c r="C13" s="52" t="s">
+      <c r="B13" s="48">
+        <v>1</v>
+      </c>
+      <c r="C13" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E13" s="41" t="s">
@@ -1773,15 +1773,16 @@
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A85C582-4E35-4BAE-A179-DE33310AD336}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,13 +1796,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -1974,13 +1975,13 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="51">
-        <v>1</v>
-      </c>
-      <c r="C13" s="52" t="s">
+      <c r="B13" s="48">
+        <v>1</v>
+      </c>
+      <c r="C13" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E13" s="41" t="s">
